--- a/results/gcc_yolov5/results.xlsx
+++ b/results/gcc_yolov5/results.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My documents\KLTN\Code\pcb_yolov5\results\gcc_yolov5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05B0BCD4-1246-474F-A092-9CB63F417864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346A7E8D-1B47-4F0E-8CCA-58F801D8C0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1209,6 +1208,9 @@
                 <c:pt idx="56" formatCode="General">
                   <c:v>0.93683000000000005</c:v>
                 </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>0.94596999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5976,8 +5978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -8701,6 +8703,10 @@
       <c r="O59" s="2"/>
     </row>
     <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G60" s="1">
+        <f>MAX(G2:G58)</f>
+        <v>0.94596999999999998</v>
+      </c>
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
